--- a/va_facility_data_2025-02-20/Ceiba VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ceiba%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ceiba VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ceiba%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra4fb1d2fb3e340d2b58a460d08874974"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfea52f44d23b456ca52e1291964704ea"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R310a9c1d28a0468f86701fa58da2345c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6bab5a3d62cd480a891d16a411b652c4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R142b41fd8f4d4321accc15325389c8e7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3585ef03f6cb415e9e1b1b5f3c2b8a04"/>
   </x:sheets>
 </x:workbook>
 </file>
